--- a/cypress/downloads/order-invoice_rawat.xlsx
+++ b/cypress/downloads/order-invoice_rawat.xlsx
@@ -424,7 +424,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>67c00ed5c019fb1ad60e6a1e</v>
+        <v>67c00ef0c019fb1ad60e6a5a</v>
       </c>
       <c r="B2" t="str">
         <v>ZARA COAT 3</v>
